--- a/ig/messaging/2.2.0/StructureDefinition-medcom-messaging-destinationUseExtension.xlsx
+++ b/ig/messaging/2.2.0/StructureDefinition-medcom-messaging-destinationUseExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T07:13:40+02:00</t>
+    <t>2024-06-28T10:59:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
